--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H2">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I2">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J2">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N2">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q2">
-        <v>8.874781268662579</v>
+        <v>19.934050246474</v>
       </c>
       <c r="R2">
-        <v>8.874781268662579</v>
+        <v>179.406452218266</v>
       </c>
       <c r="S2">
-        <v>0.002832934831083153</v>
+        <v>0.006094906857789454</v>
       </c>
       <c r="T2">
-        <v>0.002832934831083153</v>
+        <v>0.006094906857789453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H3">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I3">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J3">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q3">
-        <v>613.6932685574226</v>
+        <v>650.4820360643453</v>
       </c>
       <c r="R3">
-        <v>613.6932685574226</v>
+        <v>5854.338324579107</v>
       </c>
       <c r="S3">
-        <v>0.1958981279050258</v>
+        <v>0.1988871992122475</v>
       </c>
       <c r="T3">
-        <v>0.1958981279050258</v>
+        <v>0.1988871992122475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H4">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I4">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J4">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N4">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q4">
-        <v>1.599256518371045</v>
+        <v>1.77567638703</v>
       </c>
       <c r="R4">
-        <v>1.599256518371045</v>
+        <v>15.98108748327</v>
       </c>
       <c r="S4">
-        <v>0.0005105015388636009</v>
+        <v>0.000542919379388957</v>
       </c>
       <c r="T4">
-        <v>0.0005105015388636009</v>
+        <v>0.0005429193793889569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.0551393392112</v>
+        <v>7.379281</v>
       </c>
       <c r="H5">
-        <v>7.0551393392112</v>
+        <v>22.137843</v>
       </c>
       <c r="I5">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499962</v>
       </c>
       <c r="J5">
-        <v>0.267808834823357</v>
+        <v>0.2744121884499961</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N5">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q5">
-        <v>214.8018096390371</v>
+        <v>225.3028964397423</v>
       </c>
       <c r="R5">
-        <v>214.8018096390371</v>
+        <v>2027.726067957681</v>
       </c>
       <c r="S5">
-        <v>0.06856727054838438</v>
+        <v>0.0688871630005703</v>
       </c>
       <c r="T5">
-        <v>0.06856727054838438</v>
+        <v>0.06888716300057028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H6">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I6">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J6">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N6">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q6">
-        <v>16.52775872080132</v>
+        <v>35.92276036962933</v>
       </c>
       <c r="R6">
-        <v>16.52775872080132</v>
+        <v>323.304843326664</v>
       </c>
       <c r="S6">
-        <v>0.005275855476599529</v>
+        <v>0.01098351192158297</v>
       </c>
       <c r="T6">
-        <v>0.005275855476599529</v>
+        <v>0.01098351192158296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H7">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I7">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J7">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q7">
-        <v>1142.898508058164</v>
+        <v>1172.220899283692</v>
       </c>
       <c r="R7">
-        <v>1142.898508058164</v>
+        <v>10549.98809355323</v>
       </c>
       <c r="S7">
-        <v>0.3648266806646459</v>
+        <v>0.3584107148095532</v>
       </c>
       <c r="T7">
-        <v>0.3648266806646459</v>
+        <v>0.3584107148095532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H8">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I8">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J8">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N8">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q8">
-        <v>2.978341107024116</v>
+        <v>3.19991153612</v>
       </c>
       <c r="R8">
-        <v>2.978341107024116</v>
+        <v>28.79920382508</v>
       </c>
       <c r="S8">
-        <v>0.0009507216015259481</v>
+        <v>0.0009783843486231383</v>
       </c>
       <c r="T8">
-        <v>0.0009507216015259481</v>
+        <v>0.0009783843486231381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.1389875660213</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H9">
-        <v>13.1389875660213</v>
+        <v>39.894172</v>
       </c>
       <c r="I9">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207339</v>
       </c>
       <c r="J9">
-        <v>0.4987480447421117</v>
+        <v>0.4945128143207338</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N9">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q9">
-        <v>400.03154726094</v>
+        <v>406.0139238798138</v>
       </c>
       <c r="R9">
-        <v>400.03154726094</v>
+        <v>3654.125314918324</v>
       </c>
       <c r="S9">
-        <v>0.1276947869993403</v>
+        <v>0.1241402032409746</v>
       </c>
       <c r="T9">
-        <v>0.1276947869993403</v>
+        <v>0.1241402032409746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H10">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I10">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J10">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N10">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q10">
-        <v>2.094184001314211</v>
+        <v>4.520215268058667</v>
       </c>
       <c r="R10">
-        <v>2.094184001314211</v>
+        <v>40.681937412528</v>
       </c>
       <c r="S10">
-        <v>0.000668488227531738</v>
+        <v>0.001382071916912548</v>
       </c>
       <c r="T10">
-        <v>0.000668488227531738</v>
+        <v>0.001382071916912548</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H11">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I11">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J11">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q11">
-        <v>144.8133295707531</v>
+        <v>147.5023286617849</v>
       </c>
       <c r="R11">
-        <v>144.8133295707531</v>
+        <v>1327.520957956064</v>
       </c>
       <c r="S11">
-        <v>0.04622612241664115</v>
+        <v>0.04509936231647891</v>
       </c>
       <c r="T11">
-        <v>0.04622612241664115</v>
+        <v>0.04509936231647891</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H12">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I12">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J12">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N12">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q12">
-        <v>0.3773768967801075</v>
+        <v>0.4026497082400001</v>
       </c>
       <c r="R12">
-        <v>0.3773768967801075</v>
+        <v>3.623847374160001</v>
       </c>
       <c r="S12">
-        <v>0.000120463155425525</v>
+        <v>0.0001231115823274796</v>
       </c>
       <c r="T12">
-        <v>0.000120463155425525</v>
+        <v>0.0001231115823274796</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.66480271275972</v>
+        <v>1.673314666666667</v>
       </c>
       <c r="H13">
-        <v>1.66480271275972</v>
+        <v>5.019944000000001</v>
       </c>
       <c r="I13">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320158</v>
       </c>
       <c r="J13">
-        <v>0.0631949070427279</v>
+        <v>0.06222529534320156</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N13">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O13">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P13">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q13">
-        <v>50.68682816869039</v>
+        <v>51.08934611042756</v>
       </c>
       <c r="R13">
-        <v>50.68682816869039</v>
+        <v>459.804114993848</v>
       </c>
       <c r="S13">
-        <v>0.01617983324312949</v>
+        <v>0.01562074952748264</v>
       </c>
       <c r="T13">
-        <v>0.01617983324312949</v>
+        <v>0.01562074952748264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H14">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I14">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J14">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N14">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O14">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P14">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q14">
-        <v>5.641769272583653</v>
+        <v>12.265703139904</v>
       </c>
       <c r="R14">
-        <v>5.641769272583653</v>
+        <v>110.391328259136</v>
       </c>
       <c r="S14">
-        <v>0.001800919278728937</v>
+        <v>0.003750282419210517</v>
       </c>
       <c r="T14">
-        <v>0.001800919278728937</v>
+        <v>0.003750282419210517</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H15">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I15">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J15">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P15">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q15">
-        <v>390.1297080486201</v>
+        <v>400.2507996896853</v>
       </c>
       <c r="R15">
-        <v>390.1297080486201</v>
+        <v>3602.257197207167</v>
       </c>
       <c r="S15">
-        <v>0.1245340031617243</v>
+        <v>0.1223781074945309</v>
       </c>
       <c r="T15">
-        <v>0.1245340031617243</v>
+        <v>0.1223781074945309</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H16">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I16">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J16">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N16">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O16">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P16">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q16">
-        <v>1.016660130676615</v>
+        <v>1.09259880288</v>
       </c>
       <c r="R16">
-        <v>1.016660130676615</v>
+        <v>9.83338922592</v>
       </c>
       <c r="S16">
-        <v>0.0003245299020199251</v>
+        <v>0.0003340659752607866</v>
       </c>
       <c r="T16">
-        <v>0.0003245299020199251</v>
+        <v>0.0003340659752607866</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.48500837742407</v>
+        <v>4.540576</v>
       </c>
       <c r="H17">
-        <v>4.48500837742407</v>
+        <v>13.621728</v>
       </c>
       <c r="I17">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="J17">
-        <v>0.1702482133918034</v>
+        <v>0.1688497018860685</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N17">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O17">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P17">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q17">
-        <v>136.5512244900104</v>
+        <v>138.6320597229973</v>
       </c>
       <c r="R17">
-        <v>136.5512244900104</v>
+        <v>1247.688537506976</v>
       </c>
       <c r="S17">
-        <v>0.04358876104933025</v>
+        <v>0.0423872459970663</v>
       </c>
       <c r="T17">
-        <v>0.04358876104933025</v>
+        <v>0.04238724599706629</v>
       </c>
     </row>
   </sheetData>
